--- a/data/output_data2.xlsx
+++ b/data/output_data2.xlsx
@@ -79,7 +79,7 @@
     <t>Expected Utility: 5.472116134447312</t>
   </si>
   <si>
-    <t>(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.22096544749376096</t>
+    <t>(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.22096544749376096</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -87,11 +87,11 @@
   </si>
   <si>
     <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.1881136373909225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 4.655813354059579</t>
+(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.1881136373909225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 4.655813354059579</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -135,7 +135,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.32089054992253074</t>
+(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.32089054992253074</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -151,7 +151,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.2911600999206335</t>
+(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.2911600999206335</t>
   </si>
   <si>
     <t xml:space="preserve">

--- a/data/output_data2.xlsx
+++ b/data/output_data2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Action Taken</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.1686327452878644</t>
-  </si>
-  <si>
-    <t>(PASSES Dinotopia (Resources Added))</t>
   </si>
   <si>
     <t>(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.19193310620438983</t>
@@ -503,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -511,7 +508,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
